--- a/transcription.xlsx
+++ b/transcription.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4800" yWindow="2595" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -393,10 +393,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -404,36 +404,15 @@
     <col width="78.42578125" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>conscious of its spiritual and moral Heritage the union is founded on the indivisible Universal values of human dignity Freedom equality and solidarity is based on the principles of democracy and the rule of law it places the individual at the heart of its activities by establishing the citizenship of the union and by creating an area of Freedom security and justice</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>conscious of its spiritual and moral Heritage the union is founded on the indivisible Universal values of human dignity Freedom equality and solidarity is based on the principles of democracy and the rule of law it places the individual at the heart of its activities by establishing the citizenship of the union and by creating an area of Freedom security and justice</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>conscious of its spiritual and moral Heritage the union is founded on the indivisible Universal values of human dignity Freedom equality and solidarity is based on the principles of democracy and the rule of law it places the individual at the heart of its activities by establishing the citizenship of the union and by creating an area of Freedom security and justice</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>conscious of its spiritual and moral Heritage the union is founded on the indivisible Universal values of human dignity Freedom equality and solidarity is based on the principles of democracy and the rule of law it places the individual at the heart of its activities by establishing the citizenship of the union and by creating an area of Freedom security and justice</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>conscious of its spiritual and moral Heritage the union is founded on the indivisible Universal values of human dignity Freedom equality and solidarity is based on the principles of democracy and the rule of law it places the individual at the heart of its activities by establishing the citizenship of the union and by creating an area of Freedom security and justice</t>
         </is>
